--- a/attendingDisc.xlsx
+++ b/attendingDisc.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa17e0833ee4a1bf/Ultimate/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="10935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="10940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -120,10 +118,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,8 +172,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -167,7 +183,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -226,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,14 +466,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -466,34 +486,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
         <v>41940.506967592592</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -501,7 +521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -523,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -534,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -545,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -556,41 +576,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/attendingDisc.xlsx
+++ b/attendingDisc.xlsx
@@ -172,8 +172,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -183,9 +185,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,7 +471,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -491,7 +495,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>41940.506967592592</v>
@@ -580,7 +584,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -588,7 +592,7 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -596,7 +600,7 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
     </row>

--- a/attendingDisc.xlsx
+++ b/attendingDisc.xlsx
@@ -172,8 +172,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -185,11 +187,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,7 +475,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -495,10 +499,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
-        <v>41940.506967592592</v>
+        <v>41941.506967592592</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -576,37 +580,37 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
